--- a/data/case1/2/Plm2_14.xlsx
+++ b/data/case1/2/Plm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.055964829062389754</v>
+        <v>-0.1070994234211895</v>
       </c>
       <c r="B1" s="0">
-        <v>0.05575147926103341</v>
+        <v>0.10669024039542307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0096406890495543962</v>
+        <v>0.022636987179994961</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0087920663431990675</v>
+        <v>-0.023329463304600395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.13780799787333819</v>
+        <v>0.12626085062349901</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.13839151003646677</v>
+        <v>-0.12684642264992263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14560155604882397</v>
+        <v>-0.15714435371672053</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14497400260444593</v>
+        <v>0.15636516410833678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13897400303587126</v>
+        <v>-0.15036516460332727</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13773182155618091</v>
+        <v>0.14880877330360587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.09660921314030535</v>
+        <v>-0.04986273140452413</v>
       </c>
       <c r="B6" s="0">
-        <v>0.096469665725872566</v>
+        <v>0.049828964711817747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.076469666241418821</v>
+        <v>-0.029828965312944433</v>
       </c>
       <c r="B7" s="0">
-        <v>0.076138050468426144</v>
+        <v>0.029786418386294145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.056138050988858268</v>
+        <v>-0.0097864189897025611</v>
       </c>
       <c r="B8" s="0">
-        <v>0.055877838072595054</v>
+        <v>0.009779931280776033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.049877838528893825</v>
+        <v>-0.0037799317957656342</v>
       </c>
       <c r="B9" s="0">
-        <v>0.049664892058496335</v>
+        <v>0.0037779477458155242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.043664892520006049</v>
+        <v>0.0022220517386983829</v>
       </c>
       <c r="B10" s="0">
-        <v>0.04363711206819687</v>
+        <v>-0.0022210159179536504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.039137112522716677</v>
+        <v>0.0067210154120331822</v>
       </c>
       <c r="B11" s="0">
-        <v>0.039091428712005438</v>
+        <v>-0.0067217182727326019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.03309142917523511</v>
+        <v>0.012721717757429474</v>
       </c>
       <c r="B12" s="0">
-        <v>0.032959069043987821</v>
+        <v>-0.012753024168794536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.026959069512213496</v>
+        <v>-0.0076233612594238664</v>
       </c>
       <c r="B13" s="0">
-        <v>0.026927276606068418</v>
+        <v>0.007613851590853038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.01492727710566033</v>
+        <v>0.0043861478569429124</v>
       </c>
       <c r="B14" s="0">
-        <v>0.014918175480438833</v>
+        <v>-0.0043879324894460225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008918175950812568</v>
+        <v>0.010387931975873954</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0089140511323746452</v>
+        <v>-0.010394290728513056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0029140516032604147</v>
+        <v>-0.015026128903915748</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0029130401530457206</v>
+        <v>0.015004081538595671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044112458906866</v>
+        <v>-0.009004082053581719</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995134597555</v>
+        <v>0.0089999994652769644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036110790661055603</v>
+        <v>-0.11932722809480723</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096585041764939</v>
+        <v>0.11909499762236564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096585486419134</v>
+        <v>-0.0707922773862113</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013701692203185</v>
+        <v>0.070135466840220317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013702140537546</v>
+        <v>-0.061135467367956053</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004264537070824</v>
+        <v>0.060997273611933522</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042649859194412</v>
+        <v>-0.05199727414250388</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995508165398</v>
+        <v>0.051816882489932325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.13760006466197439</v>
+        <v>-0.093931387831167612</v>
       </c>
       <c r="B22" s="0">
-        <v>0.13687776175283695</v>
+        <v>0.093623785351843125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.12787776220393354</v>
+        <v>-0.084623785868149781</v>
       </c>
       <c r="B23" s="0">
-        <v>0.12661873573684357</v>
+        <v>0.084124622790263004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.084618736364731717</v>
+        <v>-0.042124623526055949</v>
       </c>
       <c r="B24" s="0">
-        <v>0.08402909417686466</v>
+        <v>0.041999999260199594</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.035122608859666116</v>
+        <v>-0.092946042409483454</v>
       </c>
       <c r="B25" s="0">
-        <v>0.03510508287337899</v>
+        <v>0.092781013531986645</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.02910508331738626</v>
+        <v>-0.088612870315039061</v>
       </c>
       <c r="B26" s="0">
-        <v>0.029087288921125776</v>
+        <v>0.088306407738397041</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.023087289365669506</v>
+        <v>-0.082306408253564278</v>
       </c>
       <c r="B27" s="0">
-        <v>0.023038969726254521</v>
+        <v>0.081255683877096807</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.017038970173149259</v>
+        <v>-0.075255684403692236</v>
       </c>
       <c r="B28" s="0">
-        <v>0.017017579574988062</v>
+        <v>0.074527719860356001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.03558723045374812</v>
+        <v>-0.062527720433445566</v>
       </c>
       <c r="B29" s="0">
-        <v>0.035490595266141511</v>
+        <v>0.062167069415526299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.06125835051911821</v>
+        <v>-0.042167070043641619</v>
       </c>
       <c r="B30" s="0">
-        <v>0.060846900207341736</v>
+        <v>0.042019176138170522</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018891238059339</v>
+        <v>-0.027019176739621287</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000738273612157</v>
+        <v>0.027000646662758143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007388048965993</v>
+        <v>-0.0060006473035434382</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995435964237</v>
+        <v>0.0059999994550770097</v>
       </c>
     </row>
   </sheetData>
